--- a/Asset Data/IGP/Asset_Data_IGP/Furnace Oil/furnace_oil_thermal_power_plant.xlsx
+++ b/Asset Data/IGP/Asset_Data_IGP/Furnace Oil/furnace_oil_thermal_power_plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Furnace Oil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7513E-42AB-4EA9-AED7-042F13E4692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B3791-9D5B-4AFA-9730-8357CAB65898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
         <v>123</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E8:E11" si="1">C9/1000000</f>
+        <f t="shared" ref="E9:E11" si="1">C9/1000000</f>
         <v>1.6000000000000001E-6</v>
       </c>
       <c r="F9" t="s">
@@ -1300,13 +1300,14 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="S2" sqref="S2:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
